--- a/src/python/import.xlsx
+++ b/src/python/import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuan\Desktop\TEst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F8E8BB-670E-4EA0-9C83-7A57DD8989D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F498B1E-D3F1-467F-A204-2945483D7606}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E3FA9F07-2E47-4CDC-8A86-05BB42D222D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C3044CFC-C38D-42FA-8E44-4319B762CA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,51 +31,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="8">
   <si>
-    <t>budget</t>
+    <t>sepal_length</t>
   </si>
   <si>
-    <t>gross</t>
+    <t>sepal_width</t>
   </si>
   <si>
-    <t>user_vote</t>
+    <t>petal_length</t>
   </si>
   <si>
-    <t>critic_review_ratio</t>
+    <t>petal_width</t>
   </si>
   <si>
-    <t>movie_fb</t>
+    <t>species</t>
   </si>
   <si>
-    <t>director_fb</t>
+    <t>setosa</t>
   </si>
   <si>
-    <t>actor1_fb</t>
+    <t>versicolor</t>
   </si>
   <si>
-    <t>other_actors_fb</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>face_number</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>R</t>
+    <t>virginica</t>
   </si>
 </sst>
 </file>
@@ -426,16 +405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903B3939-DE2F-41B4-A8FC-D85DF7715F90}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B0B16C-D5EA-420D-AD02-5E248F3C353A}">
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="A2:M2"/>
+      <selection sqref="A1:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,70 +430,855 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>8000000</v>
+        <v>4.7</v>
       </c>
       <c r="B2">
-        <v>59889948</v>
+        <v>3.2</v>
       </c>
       <c r="C2">
-        <v>355810</v>
+        <v>1.3</v>
       </c>
       <c r="D2">
-        <v>0.30371203600000002</v>
-      </c>
-      <c r="E2">
-        <v>15000</v>
-      </c>
-      <c r="F2">
-        <v>36</v>
-      </c>
-      <c r="G2">
-        <v>7000</v>
-      </c>
-      <c r="H2">
-        <v>177</v>
-      </c>
-      <c r="I2">
-        <v>101</v>
-      </c>
-      <c r="J2">
+        <v>0.2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>3.6</v>
+      </c>
+      <c r="C3">
+        <v>1.4</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5.4</v>
+      </c>
+      <c r="B4">
+        <v>3.9</v>
+      </c>
+      <c r="C4">
+        <v>1.7</v>
+      </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B5">
+        <v>3.4</v>
+      </c>
+      <c r="C5">
+        <v>1.4</v>
+      </c>
+      <c r="D5">
+        <v>0.3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3.4</v>
+      </c>
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5.4</v>
+      </c>
+      <c r="B7">
+        <v>3.7</v>
+      </c>
+      <c r="C7">
+        <v>1.5</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5.7</v>
+      </c>
+      <c r="B8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C8">
+        <v>1.5</v>
+      </c>
+      <c r="D8">
+        <v>0.4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5.7</v>
+      </c>
+      <c r="B9">
+        <v>3.8</v>
+      </c>
+      <c r="C9">
+        <v>1.7</v>
+      </c>
+      <c r="D9">
+        <v>0.3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4.8</v>
+      </c>
+      <c r="B10">
+        <v>3.4</v>
+      </c>
+      <c r="C10">
+        <v>1.9</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>3.4</v>
+      </c>
+      <c r="C11">
+        <v>1.6</v>
+      </c>
+      <c r="D11">
+        <v>0.4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5.2</v>
+      </c>
+      <c r="B12">
+        <v>3.5</v>
+      </c>
+      <c r="C12">
+        <v>1.5</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5.5</v>
+      </c>
+      <c r="B13">
+        <v>3.5</v>
+      </c>
+      <c r="C13">
+        <v>1.3</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B14">
+        <v>3.4</v>
+      </c>
+      <c r="C14">
+        <v>1.5</v>
+      </c>
+      <c r="D14">
+        <v>0.2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B15">
+        <v>3.8</v>
+      </c>
+      <c r="C15">
+        <v>1.9</v>
+      </c>
+      <c r="D15">
+        <v>0.4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B16">
+        <v>3.8</v>
+      </c>
+      <c r="C16">
+        <v>1.6</v>
+      </c>
+      <c r="D16">
+        <v>0.2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B17">
+        <v>3.2</v>
+      </c>
+      <c r="C17">
+        <v>1.4</v>
+      </c>
+      <c r="D17">
+        <v>0.2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6.3</v>
+      </c>
+      <c r="B18">
+        <v>3.3</v>
+      </c>
+      <c r="C18">
+        <v>4.7</v>
+      </c>
+      <c r="D18">
+        <v>1.6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B19">
+        <v>2.4</v>
+      </c>
+      <c r="C19">
+        <v>3.3</v>
+      </c>
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="K2">
-        <v>2006</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>3.5</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5.9</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>4.2</v>
+      </c>
+      <c r="D21">
+        <v>1.5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6.7</v>
+      </c>
+      <c r="B23">
+        <v>3.1</v>
+      </c>
+      <c r="C23">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D23">
+        <v>1.4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5.6</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>4.5</v>
+      </c>
+      <c r="D24">
+        <v>1.5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6.1</v>
+      </c>
+      <c r="B25">
+        <v>2.8</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>1.3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6.8</v>
+      </c>
+      <c r="B26">
+        <v>2.8</v>
+      </c>
+      <c r="C26">
+        <v>4.8</v>
+      </c>
+      <c r="D26">
+        <v>1.4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5.7</v>
+      </c>
+      <c r="B27">
+        <v>2.6</v>
+      </c>
+      <c r="C27">
+        <v>3.5</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5.8</v>
+      </c>
+      <c r="B28">
+        <v>2.7</v>
+      </c>
+      <c r="C28">
+        <v>3.9</v>
+      </c>
+      <c r="D28">
+        <v>1.2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5.4</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>4.5</v>
+      </c>
+      <c r="D29">
+        <v>1.5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>6.7</v>
+      </c>
+      <c r="B30">
+        <v>3.1</v>
+      </c>
+      <c r="C30">
+        <v>4.7</v>
+      </c>
+      <c r="D30">
+        <v>1.5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C31">
+        <v>3.3</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5.6</v>
+      </c>
+      <c r="B32">
+        <v>2.7</v>
+      </c>
+      <c r="C32">
+        <v>4.2</v>
+      </c>
+      <c r="D32">
+        <v>1.3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6.2</v>
+      </c>
+      <c r="B33">
+        <v>2.9</v>
+      </c>
+      <c r="C33">
+        <v>4.3</v>
+      </c>
+      <c r="D33">
+        <v>1.3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5.7</v>
+      </c>
+      <c r="B34">
+        <v>2.8</v>
+      </c>
+      <c r="C34">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D34">
+        <v>1.3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>6.3</v>
+      </c>
+      <c r="B35">
+        <v>3.3</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>2.5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>7.6</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>6.6</v>
+      </c>
+      <c r="D36">
+        <v>2.1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7.2</v>
+      </c>
+      <c r="B37">
+        <v>3.6</v>
+      </c>
+      <c r="C37">
+        <v>6.1</v>
+      </c>
+      <c r="D37">
+        <v>2.5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>6.8</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>5.5</v>
+      </c>
+      <c r="D38">
+        <v>2.1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5.7</v>
+      </c>
+      <c r="B39">
+        <v>2.5</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>7.7</v>
+      </c>
+      <c r="B40">
+        <v>2.6</v>
+      </c>
+      <c r="C40">
+        <v>6.9</v>
+      </c>
+      <c r="D40">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>7.2</v>
+      </c>
+      <c r="B41">
+        <v>3.2</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>1.8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>6.2</v>
+      </c>
+      <c r="B42">
+        <v>2.8</v>
+      </c>
+      <c r="C42">
+        <v>4.8</v>
+      </c>
+      <c r="D42">
+        <v>1.8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>6.4</v>
+      </c>
+      <c r="B43">
+        <v>2.8</v>
+      </c>
+      <c r="C43">
+        <v>5.6</v>
+      </c>
+      <c r="D43">
+        <v>2.1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7.4</v>
+      </c>
+      <c r="B44">
+        <v>2.8</v>
+      </c>
+      <c r="C44">
+        <v>6.1</v>
+      </c>
+      <c r="D44">
+        <v>1.9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>6.3</v>
+      </c>
+      <c r="B45">
+        <v>2.8</v>
+      </c>
+      <c r="C45">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D45">
+        <v>1.5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>6.4</v>
+      </c>
+      <c r="B46">
+        <v>3.1</v>
+      </c>
+      <c r="C46">
+        <v>5.5</v>
+      </c>
+      <c r="D46">
+        <v>1.8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>4.8</v>
+      </c>
+      <c r="D47">
+        <v>1.8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>6.9</v>
+      </c>
+      <c r="B48">
+        <v>3.1</v>
+      </c>
+      <c r="C48">
+        <v>5.4</v>
+      </c>
+      <c r="D48">
+        <v>2.1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>6.7</v>
+      </c>
+      <c r="B49">
+        <v>3.1</v>
+      </c>
+      <c r="C49">
+        <v>5.6</v>
+      </c>
+      <c r="D49">
+        <v>2.4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>6.3</v>
+      </c>
+      <c r="B50">
+        <v>2.5</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>1.9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5.9</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D51">
+        <v>1.8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
